--- a/1 NHI impact/output/sfig_09_did_hetero.xlsx
+++ b/1 NHI impact/output/sfig_09_did_hetero.xlsx
@@ -525,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>27.979339276658</v>
+        <v>27.97933927665798</v>
       </c>
       <c r="C9">
-        <v>2.460522252053397</v>
+        <v>2.460522577195509</v>
       </c>
       <c r="D9">
-        <v>23.15680427947396</v>
+        <v>23.15680364220712</v>
       </c>
       <c r="E9">
-        <v>32.80187427384205</v>
+        <v>32.80187491110885</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -552,16 +552,16 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>43.38342453339904</v>
+        <v>43.38342453339909</v>
       </c>
       <c r="C10">
-        <v>3.408220907605592</v>
+        <v>3.408219846884591</v>
       </c>
       <c r="D10">
-        <v>36.70343430313567</v>
+        <v>36.70343638211068</v>
       </c>
       <c r="E10">
-        <v>50.06341476366241</v>
+        <v>50.06341268468751</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -579,16 +579,16 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>49.11138061914405</v>
+        <v>49.11138061914406</v>
       </c>
       <c r="C11">
-        <v>4.03061941898615</v>
+        <v>4.030619479873775</v>
       </c>
       <c r="D11">
-        <v>41.21151172254344</v>
+        <v>41.21151160320589</v>
       </c>
       <c r="E11">
-        <v>57.01124951574466</v>
+        <v>57.01124963508222</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
         <v>39.68320668624485</v>
       </c>
       <c r="C12">
-        <v>2.741480656158187</v>
+        <v>2.741478998706834</v>
       </c>
       <c r="D12">
-        <v>34.31000333586157</v>
+        <v>34.31000658440653</v>
       </c>
       <c r="E12">
-        <v>45.05641003662813</v>
+        <v>45.05640678808317</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -633,16 +633,16 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>64.73618833140321</v>
+        <v>64.73618833140327</v>
       </c>
       <c r="C13">
-        <v>3.938939149317125</v>
+        <v>3.938939112033744</v>
       </c>
       <c r="D13">
-        <v>57.01600946144681</v>
+        <v>57.01600953452095</v>
       </c>
       <c r="E13">
-        <v>72.45636720135961</v>
+        <v>72.45636712828559</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>47.33144968623608</v>
+        <v>47.3314496862361</v>
       </c>
       <c r="C21">
-        <v>4.830996502078942</v>
+        <v>4.830995125782093</v>
       </c>
       <c r="D21">
-        <v>37.86287053272237</v>
+        <v>37.86287323021465</v>
       </c>
       <c r="E21">
-        <v>56.80002883974979</v>
+        <v>56.80002614225755</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -813,16 +813,16 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>104.8574062772005</v>
+        <v>104.8574062772006</v>
       </c>
       <c r="C22">
-        <v>6.679080042354071</v>
+        <v>6.679077841359741</v>
       </c>
       <c r="D22">
-        <v>91.76664994432626</v>
+        <v>91.76665425819598</v>
       </c>
       <c r="E22">
-        <v>117.9481626100747</v>
+        <v>117.9481582962052</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -840,16 +840,16 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>109.7170818704219</v>
+        <v>109.717081870422</v>
       </c>
       <c r="C23">
-        <v>10.96042489506616</v>
+        <v>10.96042495095906</v>
       </c>
       <c r="D23">
-        <v>88.23504382083604</v>
+        <v>88.23504371128806</v>
       </c>
       <c r="E23">
-        <v>131.1991199200078</v>
+        <v>131.199120029556</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -867,16 +867,16 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>95.93882354359434</v>
+        <v>95.93882354359447</v>
       </c>
       <c r="C24">
-        <v>8.619993914300737</v>
+        <v>8.619993884271892</v>
       </c>
       <c r="D24">
-        <v>79.04394592461045</v>
+        <v>79.04394598346603</v>
       </c>
       <c r="E24">
-        <v>112.8337011625782</v>
+        <v>112.8337011037229</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -894,16 +894,16 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>138.4431685085117</v>
+        <v>138.4431685085118</v>
       </c>
       <c r="C25">
-        <v>22.64859788282484</v>
+        <v>22.64859819500047</v>
       </c>
       <c r="D25">
-        <v>94.05273235784495</v>
+        <v>94.05273174599202</v>
       </c>
       <c r="E25">
-        <v>182.8336046591785</v>
+        <v>182.8336052710316</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1047,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>71.99965927144726</v>
+        <v>71.99965927144733</v>
       </c>
       <c r="C33">
-        <v>16.15087507123373</v>
+        <v>16.15087401772103</v>
       </c>
       <c r="D33">
-        <v>40.34452581302338</v>
+        <v>40.34452787787039</v>
       </c>
       <c r="E33">
-        <v>103.6547927298711</v>
+        <v>103.6547906650243</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1074,16 +1074,16 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>190.7593832825951</v>
+        <v>190.7593832825952</v>
       </c>
       <c r="C34">
-        <v>52.69389547562231</v>
+        <v>52.69390158603815</v>
       </c>
       <c r="D34">
-        <v>87.4812459452573</v>
+        <v>87.48123396906239</v>
       </c>
       <c r="E34">
-        <v>294.0375206199329</v>
+        <v>294.037532596128</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1104,13 +1104,13 @@
         <v>276.250947156921</v>
       </c>
       <c r="C35">
-        <v>55.40734154936291</v>
+        <v>55.40733899983578</v>
       </c>
       <c r="D35">
-        <v>167.65455324106</v>
+        <v>167.6545582380413</v>
       </c>
       <c r="E35">
-        <v>384.847341072782</v>
+        <v>384.8473360758006</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>172.8535709198007</v>
       </c>
       <c r="C36">
-        <v>78.21318753658667</v>
+        <v>78.21318385689463</v>
       </c>
       <c r="D36">
-        <v>19.55854023201383</v>
+        <v>19.55854744407776</v>
       </c>
       <c r="E36">
-        <v>326.1486016075876</v>
+        <v>326.1485943955237</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1158,13 +1158,13 @@
         <v>407.4996797705942</v>
       </c>
       <c r="C37">
-        <v>104.5491037290381</v>
+        <v>104.5491022194163</v>
       </c>
       <c r="D37">
-        <v>202.5872018457374</v>
+        <v>202.5872048045417</v>
       </c>
       <c r="E37">
-        <v>612.4121576954511</v>
+        <v>612.4121547366467</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1311,13 +1311,13 @@
         <v>-139.8351838308201</v>
       </c>
       <c r="C45">
-        <v>105.4046186311092</v>
+        <v>105.4046164397602</v>
       </c>
       <c r="D45">
-        <v>-346.4244401519737</v>
+        <v>-346.4244358570086</v>
       </c>
       <c r="E45">
-        <v>66.75407249033353</v>
+        <v>66.7540681953684</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1335,16 +1335,16 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>281.5292456380445</v>
+        <v>281.5292456380442</v>
       </c>
       <c r="C46">
-        <v>119.228912604049</v>
+        <v>119.228909619547</v>
       </c>
       <c r="D46">
-        <v>47.84487101823478</v>
+        <v>47.844876867751</v>
       </c>
       <c r="E46">
-        <v>515.2136202578542</v>
+        <v>515.2136144083374</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1362,16 +1362,16 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>291.8759091306042</v>
+        <v>291.8759091306046</v>
       </c>
       <c r="C47">
-        <v>138.13675015003</v>
+        <v>138.1367303778463</v>
       </c>
       <c r="D47">
-        <v>21.13285389513754</v>
+        <v>21.13289264790581</v>
       </c>
       <c r="E47">
-        <v>562.6189643660707</v>
+        <v>562.6189256133033</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1389,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>-81.84874812140517</v>
+        <v>-81.84874812140436</v>
       </c>
       <c r="C48">
-        <v>152.5303871517484</v>
+        <v>152.5304384684506</v>
       </c>
       <c r="D48">
-        <v>-380.802813486783</v>
+        <v>-380.8029140656702</v>
       </c>
       <c r="E48">
-        <v>217.1053172439727</v>
+        <v>217.1054178228615</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>127.1850978670146</v>
+        <v>127.1850978670136</v>
       </c>
       <c r="C49">
-        <v>200.4850315057927</v>
+        <v>200.4850236379362</v>
       </c>
       <c r="D49">
-        <v>-265.7583433237171</v>
+        <v>-265.7583279030027</v>
       </c>
       <c r="E49">
-        <v>520.1285390577464</v>
+        <v>520.12852363703</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>-0.03516815387185768</v>
+        <v>-0.03516815387185752</v>
       </c>
       <c r="C57">
-        <v>0.05046806804323651</v>
+        <v>0.05046806629305663</v>
       </c>
       <c r="D57">
-        <v>-0.1340837496059181</v>
+        <v>-0.1340837461756283</v>
       </c>
       <c r="E57">
-        <v>0.0637474418622027</v>
+        <v>0.06374743843191333</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1596,16 +1596,16 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>0.0828960990329021</v>
+        <v>0.08289609903290222</v>
       </c>
       <c r="C58">
-        <v>0.06001523412430333</v>
+        <v>0.06001524618695838</v>
       </c>
       <c r="D58">
-        <v>-0.03473159837447165</v>
+        <v>-0.03473162201684098</v>
       </c>
       <c r="E58">
-        <v>0.2005237964402758</v>
+        <v>0.2005238200826454</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>-0.001786904203334731</v>
+        <v>-0.001786904203334426</v>
       </c>
       <c r="C59">
-        <v>0.07527189128180198</v>
+        <v>0.07527189551354746</v>
       </c>
       <c r="D59">
-        <v>-0.1493171001638811</v>
+        <v>-0.1493171084579495</v>
       </c>
       <c r="E59">
-        <v>0.1457432917572116</v>
+        <v>0.1457433000512806</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1650,16 +1650,16 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>-0.008765501549553639</v>
+        <v>-0.008765501549552851</v>
       </c>
       <c r="C60">
-        <v>0.0343409450464443</v>
+        <v>0.0343409576443155</v>
       </c>
       <c r="D60">
-        <v>-0.07607251703565361</v>
+        <v>-0.07607254172702668</v>
       </c>
       <c r="E60">
-        <v>0.05854151393654634</v>
+        <v>0.05854153862792098</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1677,16 +1677,16 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>0.2258527054040087</v>
+        <v>0.2258527054040095</v>
       </c>
       <c r="C61">
-        <v>0.0885658560368031</v>
+        <v>0.08856600635703722</v>
       </c>
       <c r="D61">
-        <v>0.05226681731191535</v>
+        <v>0.05226652268967108</v>
       </c>
       <c r="E61">
-        <v>0.3994385934961021</v>
+        <v>0.3994388881183479</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1830,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>-0.001213395246871622</v>
+        <v>-0.001213395246871613</v>
       </c>
       <c r="C69">
-        <v>0.002168675281815943</v>
+        <v>0.002168675239653378</v>
       </c>
       <c r="D69">
-        <v>-0.00546392069339312</v>
+        <v>-0.005463920610756004</v>
       </c>
       <c r="E69">
-        <v>0.003037130199649876</v>
+        <v>0.003037130117012779</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         <v>-0.004034296473040521</v>
       </c>
       <c r="C70">
-        <v>0.002670975943903358</v>
+        <v>0.002670975738403854</v>
       </c>
       <c r="D70">
-        <v>-0.009269313126663976</v>
+        <v>-0.009269312723892349</v>
       </c>
       <c r="E70">
-        <v>0.001200720180582935</v>
+        <v>0.001200719777811308</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -1884,16 +1884,16 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>-0.004441577084804616</v>
+        <v>-0.0044415770848046</v>
       </c>
       <c r="C71">
-        <v>0.00233059023939008</v>
+        <v>0.002330588921403029</v>
       </c>
       <c r="D71">
-        <v>-0.009009450016729755</v>
+        <v>-0.009009447433522586</v>
       </c>
       <c r="E71">
-        <v>0.0001262958471205233</v>
+        <v>0.0001262932639133855</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -1911,16 +1911,16 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>-0.006521294180981064</v>
+        <v>-0.006521294180981087</v>
       </c>
       <c r="C72">
-        <v>0.00489131801840389</v>
+        <v>0.004891318121511912</v>
       </c>
       <c r="D72">
-        <v>-0.01610810133398451</v>
+        <v>-0.01610810153607254</v>
       </c>
       <c r="E72">
-        <v>0.003065512972022384</v>
+        <v>0.00306551317411037</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -1938,16 +1938,16 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>-0.002528521014559014</v>
+        <v>-0.002528521014558976</v>
       </c>
       <c r="C73">
-        <v>0.00337642731329535</v>
+        <v>0.003376427805700969</v>
       </c>
       <c r="D73">
-        <v>-0.009146196945035235</v>
+        <v>-0.009146197910132476</v>
       </c>
       <c r="E73">
-        <v>0.004089154915917208</v>
+        <v>0.004089155881014526</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -1965,16 +1965,16 @@
         <v>-3</v>
       </c>
       <c r="B74">
-        <v>1.130172344214303</v>
+        <v>1.130172344214316</v>
       </c>
       <c r="C74">
         <v>4.007820120812577</v>
       </c>
       <c r="D74">
-        <v>-7.412294030976986</v>
+        <v>-7.412294030976974</v>
       </c>
       <c r="E74">
-        <v>9.672638719405592</v>
+        <v>9.672638719405606</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -1992,13 +1992,13 @@
         <v>-2</v>
       </c>
       <c r="B75">
-        <v>2.731301892578617</v>
+        <v>2.731301892578608</v>
       </c>
       <c r="C75">
-        <v>3.686105685181782</v>
+        <v>3.686105685181784</v>
       </c>
       <c r="D75">
-        <v>-5.125446394987396</v>
+        <v>-5.125446394987408</v>
       </c>
       <c r="E75">
         <v>10.58805018014463</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>36.56359496087177</v>
+        <v>36.56359496087178</v>
       </c>
       <c r="C77">
-        <v>6.790158327739276</v>
+        <v>6.790158327739273</v>
       </c>
       <c r="D77">
-        <v>22.09071507893297</v>
+        <v>22.09071507893299</v>
       </c>
       <c r="E77">
-        <v>51.03647484281057</v>
+        <v>51.03647484281058</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2073,13 +2073,13 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>42.74204689214235</v>
+        <v>42.74204689214236</v>
       </c>
       <c r="C78">
         <v>6.040811096608486</v>
       </c>
       <c r="D78">
-        <v>29.86636282546375</v>
+        <v>29.86636282546376</v>
       </c>
       <c r="E78">
         <v>55.61773095882096</v>
@@ -2103,10 +2103,10 @@
         <v>46.18740342727631</v>
       </c>
       <c r="C79">
-        <v>9.125411736139791</v>
+        <v>9.125411736139792</v>
       </c>
       <c r="D79">
-        <v>26.73704872923532</v>
+        <v>26.73704872923531</v>
       </c>
       <c r="E79">
         <v>65.6377581253173</v>
@@ -2127,16 +2127,16 @@
         <v>-3</v>
       </c>
       <c r="B80">
-        <v>22.79321245316178</v>
+        <v>22.7932124531618</v>
       </c>
       <c r="C80">
         <v>20.46414940158547</v>
       </c>
       <c r="D80">
-        <v>-20.82508948911491</v>
+        <v>-20.82508948911488</v>
       </c>
       <c r="E80">
-        <v>66.41151439543847</v>
+        <v>66.41151439543849</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
         <v>-2</v>
       </c>
       <c r="B81">
-        <v>28.94031467393088</v>
+        <v>28.9403146739309</v>
       </c>
       <c r="C81">
         <v>27.29686428517954</v>
       </c>
       <c r="D81">
-        <v>-29.2415743019219</v>
+        <v>-29.24157430192188</v>
       </c>
       <c r="E81">
-        <v>87.12220364978366</v>
+        <v>87.12220364978367</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2211,10 +2211,10 @@
         <v>87.20345790279998</v>
       </c>
       <c r="C83">
-        <v>20.12636496252735</v>
+        <v>20.12636496252734</v>
       </c>
       <c r="D83">
-        <v>44.30512644965088</v>
+        <v>44.3051264496509</v>
       </c>
       <c r="E83">
         <v>130.1017893559491</v>
@@ -2265,10 +2265,10 @@
         <v>131.3915398038398</v>
       </c>
       <c r="C85">
-        <v>29.47535718554703</v>
+        <v>29.47535718554702</v>
       </c>
       <c r="D85">
-        <v>68.5663031254935</v>
+        <v>68.56630312549353</v>
       </c>
       <c r="E85">
         <v>194.216776482186</v>
@@ -2289,16 +2289,16 @@
         <v>-3</v>
       </c>
       <c r="B86">
-        <v>7.965146857010613</v>
+        <v>7.965146857010726</v>
       </c>
       <c r="C86">
         <v>99.45062771752362</v>
       </c>
       <c r="D86">
-        <v>-204.0088483971395</v>
+        <v>-204.0088483971394</v>
       </c>
       <c r="E86">
-        <v>219.9391421111607</v>
+        <v>219.9391421111608</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2316,16 +2316,16 @@
         <v>-2</v>
       </c>
       <c r="B87">
-        <v>39.49378813505549</v>
+        <v>39.49378813505553</v>
       </c>
       <c r="C87">
-        <v>77.00377716126312</v>
+        <v>77.00377716126309</v>
       </c>
       <c r="D87">
-        <v>-124.635877701705</v>
+        <v>-124.6358777017049</v>
       </c>
       <c r="E87">
-        <v>203.623453971816</v>
+        <v>203.6234539718159</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2370,16 +2370,16 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>87.07317030644323</v>
+        <v>87.0731703064433</v>
       </c>
       <c r="C89">
-        <v>42.64324581920448</v>
+        <v>42.64324581920447</v>
       </c>
       <c r="D89">
-        <v>-3.818756616093935</v>
+        <v>-3.81875661609385</v>
       </c>
       <c r="E89">
-        <v>177.9650972289804</v>
+        <v>177.9650972289805</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2397,16 +2397,16 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>203.1295263571463</v>
+        <v>203.1295263571465</v>
       </c>
       <c r="C90">
-        <v>67.73111139262839</v>
+        <v>67.73111139262842</v>
       </c>
       <c r="D90">
-        <v>58.76407975907003</v>
+        <v>58.76407975907011</v>
       </c>
       <c r="E90">
-        <v>347.4949729552226</v>
+        <v>347.4949729552228</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2424,16 +2424,16 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>268.2077780683311</v>
+        <v>268.2077780683312</v>
       </c>
       <c r="C91">
         <v>92.51809439592898</v>
       </c>
       <c r="D91">
-        <v>71.01012781207189</v>
+        <v>71.01012781207194</v>
       </c>
       <c r="E91">
-        <v>465.4054283245903</v>
+        <v>465.4054283245904</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2451,16 +2451,16 @@
         <v>-3</v>
       </c>
       <c r="B92">
-        <v>248.0647660915618</v>
+        <v>248.0647660915617</v>
       </c>
       <c r="C92">
-        <v>324.1732228481483</v>
+        <v>324.1732228481484</v>
       </c>
       <c r="D92">
-        <v>-442.8941024307716</v>
+        <v>-442.8941024307719</v>
       </c>
       <c r="E92">
-        <v>939.0236346138951</v>
+        <v>939.0236346138952</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>240.891793881004</v>
       </c>
       <c r="C95">
-        <v>253.0451472978206</v>
+        <v>253.0451472978207</v>
       </c>
       <c r="D95">
         <v>-298.4611703330422</v>
@@ -2559,13 +2559,13 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>567.9655385374836</v>
+        <v>567.9655385374837</v>
       </c>
       <c r="C96">
         <v>399.5587602950741</v>
       </c>
       <c r="D96">
-        <v>-283.6737995178792</v>
+        <v>-283.673799517879</v>
       </c>
       <c r="E96">
         <v>1419.604876592846</v>
@@ -2586,13 +2586,13 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>479.4093545904393</v>
+        <v>479.4093545904394</v>
       </c>
       <c r="C97">
         <v>329.6827388693355</v>
       </c>
       <c r="D97">
-        <v>-223.2927693515078</v>
+        <v>-223.2927693515077</v>
       </c>
       <c r="E97">
         <v>1182.111478532386</v>
@@ -2613,13 +2613,13 @@
         <v>-3</v>
       </c>
       <c r="B98">
-        <v>-0.04133493282745915</v>
+        <v>-0.04133493282745918</v>
       </c>
       <c r="C98">
-        <v>0.1194463336998291</v>
+        <v>0.1194463336998292</v>
       </c>
       <c r="D98">
-        <v>-0.2959287665107412</v>
+        <v>-0.2959287665107413</v>
       </c>
       <c r="E98">
         <v>0.2132589008558229</v>
@@ -2640,16 +2640,16 @@
         <v>-2</v>
       </c>
       <c r="B99">
-        <v>-0.04137437266932916</v>
+        <v>-0.04137437266932918</v>
       </c>
       <c r="C99">
-        <v>0.1116102281305714</v>
+        <v>0.1116102281305715</v>
       </c>
       <c r="D99">
-        <v>-0.2792659426980584</v>
+        <v>-0.2792659426980586</v>
       </c>
       <c r="E99">
-        <v>0.1965171973594001</v>
+        <v>0.1965171973594002</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2694,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>-0.01723020663125988</v>
+        <v>-0.01723020663125996</v>
       </c>
       <c r="C101">
-        <v>0.05286223931095785</v>
+        <v>0.05286223931095787</v>
       </c>
       <c r="D101">
-        <v>-0.1299034025878731</v>
+        <v>-0.1299034025878732</v>
       </c>
       <c r="E101">
-        <v>0.09544298932535331</v>
+        <v>0.09544298932535326</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2721,16 +2721,16 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>0.0286245393594167</v>
+        <v>0.0286245393594166</v>
       </c>
       <c r="C102">
-        <v>0.09521301133890654</v>
+        <v>0.09521301133890653</v>
       </c>
       <c r="D102">
         <v>-0.1743171903902734</v>
       </c>
       <c r="E102">
-        <v>0.2315662691091067</v>
+        <v>0.2315662691091066</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2748,16 +2748,16 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>0.03905963545664767</v>
+        <v>0.03905963545664755</v>
       </c>
       <c r="C103">
         <v>0.112177136822091</v>
       </c>
       <c r="D103">
-        <v>-0.2000402718449949</v>
+        <v>-0.2000402718449951</v>
       </c>
       <c r="E103">
-        <v>0.2781595427582902</v>
+        <v>0.2781595427582901</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
         <v>-3</v>
       </c>
       <c r="B104">
-        <v>0.003155827243730804</v>
+        <v>0.003155827243730803</v>
       </c>
       <c r="C104">
-        <v>0.003933219150805819</v>
+        <v>0.003933219150805818</v>
       </c>
       <c r="D104">
         <v>-0.005227630927841263</v>
@@ -2802,7 +2802,7 @@
         <v>-2</v>
       </c>
       <c r="B105">
-        <v>0.00428274635768565</v>
+        <v>0.004282746357685649</v>
       </c>
       <c r="C105">
         <v>0.003692485606483496</v>
@@ -2862,10 +2862,10 @@
         <v>0.003091786341260008</v>
       </c>
       <c r="D107">
-        <v>-0.002537563863928881</v>
+        <v>-0.002537563863928882</v>
       </c>
       <c r="E107">
-        <v>0.01064240932016425</v>
+        <v>0.01064240932016424</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="B108">
-        <v>0.0006951163266457262</v>
+        <v>0.0006951163266457237</v>
       </c>
       <c r="C108">
-        <v>0.005061313533381072</v>
+        <v>0.005061313533381071</v>
       </c>
       <c r="D108">
         <v>-0.0100928181040149</v>
@@ -2910,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="B109">
-        <v>0.0024407515792207</v>
+        <v>0.002440751579220699</v>
       </c>
       <c r="C109">
-        <v>0.004927598220452234</v>
+        <v>0.004927598220452233</v>
       </c>
       <c r="D109">
         <v>-0.008062175408463369</v>
@@ -2937,16 +2937,16 @@
         <v>-7</v>
       </c>
       <c r="B110">
-        <v>3.861669992396892</v>
+        <v>3.861669992396882</v>
       </c>
       <c r="C110">
-        <v>1.781382573204358</v>
+        <v>1.781382573204359</v>
       </c>
       <c r="D110">
-        <v>0.3660804751483293</v>
+        <v>0.3660804751483178</v>
       </c>
       <c r="E110">
-        <v>7.357259509645454</v>
+        <v>7.357259509645447</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -2964,16 +2964,16 @@
         <v>-6</v>
       </c>
       <c r="B111">
-        <v>3.475253223239994</v>
+        <v>3.475253223240006</v>
       </c>
       <c r="C111">
         <v>3.022960710813474</v>
       </c>
       <c r="D111">
-        <v>-2.456672872099441</v>
+        <v>-2.456672872099429</v>
       </c>
       <c r="E111">
-        <v>9.407179318579431</v>
+        <v>9.407179318579441</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -2991,16 +2991,16 @@
         <v>-5</v>
       </c>
       <c r="B112">
-        <v>-1.54742051383258</v>
+        <v>-1.547420513832574</v>
       </c>
       <c r="C112">
-        <v>0.9651257934056767</v>
+        <v>0.9651257934056721</v>
       </c>
       <c r="D112">
-        <v>-3.441277373668415</v>
+        <v>-3.4412773736684</v>
       </c>
       <c r="E112">
-        <v>0.3464363460032553</v>
+        <v>0.3464363460032522</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>-4.770669674637272</v>
       </c>
       <c r="E113">
-        <v>-0.3858631004125042</v>
+        <v>-0.385863100412505</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3045,16 +3045,16 @@
         <v>-3</v>
       </c>
       <c r="B114">
-        <v>0.8305353432143537</v>
+        <v>0.8305353432143623</v>
       </c>
       <c r="C114">
-        <v>0.9184969637504472</v>
+        <v>0.9184969637504502</v>
       </c>
       <c r="D114">
-        <v>-0.9718222224237211</v>
+        <v>-0.9718222224237183</v>
       </c>
       <c r="E114">
-        <v>2.632892908852428</v>
+        <v>2.632892908852443</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3072,16 +3072,16 @@
         <v>-2</v>
       </c>
       <c r="B115">
-        <v>0.3893479336280078</v>
+        <v>0.3893479336280047</v>
       </c>
       <c r="C115">
-        <v>0.8705886785852124</v>
+        <v>0.8705886785852097</v>
       </c>
       <c r="D115">
-        <v>-1.318999674838594</v>
+        <v>-1.318999674838592</v>
       </c>
       <c r="E115">
-        <v>2.09769554209461</v>
+        <v>2.097695542094602</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3126,16 +3126,16 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>27.16771723945605</v>
+        <v>27.16771723945604</v>
       </c>
       <c r="C117">
-        <v>6.893272209846035</v>
+        <v>6.893272209846034</v>
       </c>
       <c r="D117">
-        <v>13.6411169242107</v>
+        <v>13.64111692421069</v>
       </c>
       <c r="E117">
-        <v>40.69431755470139</v>
+        <v>40.69431755470138</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3156,13 +3156,13 @@
         <v>43.65550200582457</v>
       </c>
       <c r="C118">
-        <v>5.401345058222233</v>
+        <v>5.401345058222235</v>
       </c>
       <c r="D118">
-        <v>33.05649567862055</v>
+        <v>33.05649567862054</v>
       </c>
       <c r="E118">
-        <v>54.25450833302858</v>
+        <v>54.25450833302859</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3180,13 +3180,13 @@
         <v>2</v>
       </c>
       <c r="B119">
-        <v>44.49806896234567</v>
+        <v>44.49806896234568</v>
       </c>
       <c r="C119">
-        <v>6.779555604079518</v>
+        <v>6.779555604079516</v>
       </c>
       <c r="D119">
-        <v>31.19461362507072</v>
+        <v>31.19461362507073</v>
       </c>
       <c r="E119">
         <v>57.80152429962062</v>
@@ -3210,10 +3210,10 @@
         <v>39.2523309657369</v>
       </c>
       <c r="C120">
-        <v>4.902870542038539</v>
+        <v>4.902870542038538</v>
       </c>
       <c r="D120">
-        <v>29.63147628299009</v>
+        <v>29.6314762829901</v>
       </c>
       <c r="E120">
         <v>48.8731856484837</v>
@@ -3240,10 +3240,10 @@
         <v>4.951092852954114</v>
       </c>
       <c r="D121">
-        <v>42.27554562760825</v>
+        <v>42.27554562760824</v>
       </c>
       <c r="E121">
-        <v>61.70650732673254</v>
+        <v>61.70650732673253</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3261,16 +3261,16 @@
         <v>-7</v>
       </c>
       <c r="B122">
-        <v>4.190056321398603</v>
+        <v>4.190056321398607</v>
       </c>
       <c r="C122">
-        <v>9.835344926022811</v>
+        <v>9.835344926022815</v>
       </c>
       <c r="D122">
-        <v>-15.10974437221978</v>
+        <v>-15.10974437221979</v>
       </c>
       <c r="E122">
-        <v>23.48985701501699</v>
+        <v>23.489857015017</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3288,13 +3288,13 @@
         <v>-6</v>
       </c>
       <c r="B123">
-        <v>9.087944579376638</v>
+        <v>9.087944579376645</v>
       </c>
       <c r="C123">
         <v>7.058256731754035</v>
       </c>
       <c r="D123">
-        <v>-4.76240324185922</v>
+        <v>-4.762403241859213</v>
       </c>
       <c r="E123">
         <v>22.9382924006125</v>
@@ -3315,7 +3315,7 @@
         <v>-5</v>
       </c>
       <c r="B124">
-        <v>-0.1307114837169624</v>
+        <v>-0.1307114837169594</v>
       </c>
       <c r="C124">
         <v>6.335852510999303</v>
@@ -3342,7 +3342,7 @@
         <v>-4</v>
       </c>
       <c r="B125">
-        <v>-14.32312884238628</v>
+        <v>-14.32312884238629</v>
       </c>
       <c r="C125">
         <v>4.045908648346528</v>
@@ -3351,7 +3351,7 @@
         <v>-22.26237562274815</v>
       </c>
       <c r="E125">
-        <v>-6.383882062024424</v>
+        <v>-6.383882062024429</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3369,13 +3369,13 @@
         <v>-3</v>
       </c>
       <c r="B126">
-        <v>1.391955959943579</v>
+        <v>1.391955959943583</v>
       </c>
       <c r="C126">
         <v>5.028655919505102</v>
       </c>
       <c r="D126">
-        <v>-8.475726132877382</v>
+        <v>-8.475726132877377</v>
       </c>
       <c r="E126">
         <v>11.25963805276454</v>
@@ -3396,16 +3396,16 @@
         <v>-2</v>
       </c>
       <c r="B127">
-        <v>9.420373345034443</v>
+        <v>9.420373345034452</v>
       </c>
       <c r="C127">
-        <v>5.711126447684646</v>
+        <v>5.711126447684647</v>
       </c>
       <c r="D127">
-        <v>-1.786513958402342</v>
+        <v>-1.786513958402335</v>
       </c>
       <c r="E127">
-        <v>20.62726064847123</v>
+        <v>20.62726064847124</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="B129">
-        <v>53.34854717645737</v>
+        <v>53.34854717645736</v>
       </c>
       <c r="C129">
         <v>15.82602196331833</v>
@@ -3459,7 +3459,7 @@
         <v>22.29329980463148</v>
       </c>
       <c r="E129">
-        <v>84.40379454828326</v>
+        <v>84.40379454828323</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>19.44922661428369</v>
       </c>
       <c r="D132">
-        <v>72.15448959560132</v>
+        <v>72.15448959560129</v>
       </c>
       <c r="E132">
         <v>148.4845420999181</v>
@@ -3561,10 +3561,10 @@
         <v>136.3081192828213</v>
       </c>
       <c r="C133">
-        <v>34.2530989297105</v>
+        <v>34.25309892971051</v>
       </c>
       <c r="D133">
-        <v>69.0935998679409</v>
+        <v>69.09359986794085</v>
       </c>
       <c r="E133">
         <v>203.5226386977018</v>
@@ -3585,16 +3585,16 @@
         <v>-7</v>
       </c>
       <c r="B134">
-        <v>4.975750041451902</v>
+        <v>4.97575004145193</v>
       </c>
       <c r="C134">
         <v>21.75859017173378</v>
       </c>
       <c r="D134">
-        <v>-37.72091762472202</v>
+        <v>-37.72091762472199</v>
       </c>
       <c r="E134">
-        <v>47.67241770762583</v>
+        <v>47.67241770762585</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3612,16 +3612,16 @@
         <v>-6</v>
       </c>
       <c r="B135">
-        <v>56.75383775679803</v>
+        <v>56.75383775679798</v>
       </c>
       <c r="C135">
         <v>24.28048762776857</v>
       </c>
       <c r="D135">
-        <v>9.108475496046587</v>
+        <v>9.108475496046538</v>
       </c>
       <c r="E135">
-        <v>104.3992000175495</v>
+        <v>104.3992000175494</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3639,16 +3639,16 @@
         <v>-5</v>
       </c>
       <c r="B136">
-        <v>-2.50760120562449</v>
+        <v>-2.50760120562452</v>
       </c>
       <c r="C136">
-        <v>30.42749590927975</v>
+        <v>30.42749590927976</v>
       </c>
       <c r="D136">
-        <v>-62.21517740879649</v>
+        <v>-62.21517740879653</v>
       </c>
       <c r="E136">
-        <v>57.19997499754751</v>
+        <v>57.19997499754749</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3666,16 +3666,16 @@
         <v>-4</v>
       </c>
       <c r="B137">
-        <v>-51.01522691793635</v>
+        <v>-51.01522691793645</v>
       </c>
       <c r="C137">
         <v>22.51635278953633</v>
       </c>
       <c r="D137">
-        <v>-95.19884472227668</v>
+        <v>-95.19884472227676</v>
       </c>
       <c r="E137">
-        <v>-6.831609113596038</v>
+        <v>-6.83160911359613</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3693,16 +3693,16 @@
         <v>-3</v>
       </c>
       <c r="B138">
-        <v>6.72365656614285</v>
+        <v>6.723656566142768</v>
       </c>
       <c r="C138">
-        <v>25.48100296971735</v>
+        <v>25.48100296971736</v>
       </c>
       <c r="D138">
-        <v>-43.2774651523109</v>
+        <v>-43.277465152311</v>
       </c>
       <c r="E138">
-        <v>56.7247782845966</v>
+        <v>56.72477828459654</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3720,16 +3720,16 @@
         <v>-2</v>
       </c>
       <c r="B139">
-        <v>18.65284057704886</v>
+        <v>18.65284057704878</v>
       </c>
       <c r="C139">
         <v>17.48536035542979</v>
       </c>
       <c r="D139">
-        <v>-15.65851021482969</v>
+        <v>-15.65851021482976</v>
       </c>
       <c r="E139">
-        <v>52.9641913689274</v>
+        <v>52.96419136892733</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3774,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>60.81220436182934</v>
+        <v>60.81220436182937</v>
       </c>
       <c r="C141">
         <v>28.25806775761932</v>
       </c>
       <c r="D141">
-        <v>5.361675701076621</v>
+        <v>5.361675701076642</v>
       </c>
       <c r="E141">
         <v>116.2627330225821</v>
@@ -3804,10 +3804,10 @@
         <v>186.2491383308926</v>
       </c>
       <c r="C142">
-        <v>51.87271331000817</v>
+        <v>51.87271331000814</v>
       </c>
       <c r="D142">
-        <v>84.45982277048768</v>
+        <v>84.45982277048772</v>
       </c>
       <c r="E142">
         <v>288.0384538912975</v>
@@ -3828,16 +3828,16 @@
         <v>2</v>
       </c>
       <c r="B143">
-        <v>225.4057222280377</v>
+        <v>225.4057222280379</v>
       </c>
       <c r="C143">
-        <v>58.36137405124945</v>
+        <v>58.36137405124943</v>
       </c>
       <c r="D143">
-        <v>110.8837714609992</v>
+        <v>110.8837714609994</v>
       </c>
       <c r="E143">
-        <v>339.9276729950762</v>
+        <v>339.9276729950764</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3855,16 +3855,16 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>209.7033375646415</v>
+        <v>209.7033375646416</v>
       </c>
       <c r="C144">
-        <v>87.88442050893259</v>
+        <v>87.88442050893262</v>
       </c>
       <c r="D144">
         <v>37.24860286501851</v>
       </c>
       <c r="E144">
-        <v>382.1580722642645</v>
+        <v>382.1580722642647</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3882,16 +3882,16 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>257.3895603609938</v>
+        <v>257.389560360994</v>
       </c>
       <c r="C145">
-        <v>242.1775094841499</v>
+        <v>242.17750948415</v>
       </c>
       <c r="D145">
-        <v>-217.8329865528763</v>
+        <v>-217.8329865528762</v>
       </c>
       <c r="E145">
-        <v>732.6121072748639</v>
+        <v>732.6121072748642</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3963,13 +3963,13 @@
         <v>-5</v>
       </c>
       <c r="B148">
-        <v>43.81604027938037</v>
+        <v>43.81604027938035</v>
       </c>
       <c r="C148">
-        <v>71.32654520474942</v>
+        <v>71.32654520474944</v>
       </c>
       <c r="D148">
-        <v>-96.14733842976746</v>
+        <v>-96.14733842976752</v>
       </c>
       <c r="E148">
         <v>183.7794189885282</v>
@@ -3990,16 +3990,16 @@
         <v>-4</v>
       </c>
       <c r="B149">
-        <v>-214.3209149225469</v>
+        <v>-214.3209149225468</v>
       </c>
       <c r="C149">
         <v>101.1037878070918</v>
       </c>
       <c r="D149">
-        <v>-412.7158841608866</v>
+        <v>-412.7158841608865</v>
       </c>
       <c r="E149">
-        <v>-15.92594568420722</v>
+        <v>-15.92594568420716</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4044,16 +4044,16 @@
         <v>-2</v>
       </c>
       <c r="B151">
-        <v>99.93849843096305</v>
+        <v>99.93849843096308</v>
       </c>
       <c r="C151">
-        <v>110.7955055292906</v>
+        <v>110.7955055292907</v>
       </c>
       <c r="D151">
         <v>-117.4744332503965</v>
       </c>
       <c r="E151">
-        <v>317.3514301123225</v>
+        <v>317.3514301123226</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4098,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>-9.035809286583001</v>
+        <v>-9.035809286583012</v>
       </c>
       <c r="C153">
         <v>127.6699410395955</v>
       </c>
       <c r="D153">
-        <v>-259.5612799399635</v>
+        <v>-259.5612799399636</v>
       </c>
       <c r="E153">
-        <v>241.4896613667975</v>
+        <v>241.4896613667976</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4125,16 +4125,16 @@
         <v>1</v>
       </c>
       <c r="B154">
-        <v>358.4622735083816</v>
+        <v>358.4622735083817</v>
       </c>
       <c r="C154">
-        <v>288.9150195585321</v>
+        <v>288.915019558532</v>
       </c>
       <c r="D154">
-        <v>-208.4728301217191</v>
+        <v>-208.4728301217189</v>
       </c>
       <c r="E154">
-        <v>925.3973771384823</v>
+        <v>925.3973771384822</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4152,16 +4152,16 @@
         <v>2</v>
       </c>
       <c r="B155">
-        <v>326.5382307536505</v>
+        <v>326.5382307536506</v>
       </c>
       <c r="C155">
         <v>275.4502121651647</v>
       </c>
       <c r="D155">
-        <v>-213.9750136509157</v>
+        <v>-213.9750136509156</v>
       </c>
       <c r="E155">
-        <v>867.0514751582167</v>
+        <v>867.0514751582168</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4179,16 +4179,16 @@
         <v>3</v>
       </c>
       <c r="B156">
-        <v>77.00413100703993</v>
+        <v>77.00413100704002</v>
       </c>
       <c r="C156">
-        <v>339.3456874841347</v>
+        <v>339.3456874841348</v>
       </c>
       <c r="D156">
-        <v>-588.8905766970345</v>
+        <v>-588.8905766970346</v>
       </c>
       <c r="E156">
-        <v>742.8988387111144</v>
+        <v>742.8988387111145</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4209,10 +4209,10 @@
         <v>247.9221527775194</v>
       </c>
       <c r="C157">
-        <v>577.8210763440256</v>
+        <v>577.8210763440255</v>
       </c>
       <c r="D157">
-        <v>-885.9304669212281</v>
+        <v>-885.9304669212279</v>
       </c>
       <c r="E157">
         <v>1381.774772476267</v>
@@ -4233,13 +4233,13 @@
         <v>-7</v>
       </c>
       <c r="B158">
-        <v>0.1481567446723755</v>
+        <v>0.1481567446723756</v>
       </c>
       <c r="C158">
         <v>0.1620403689663955</v>
       </c>
       <c r="D158">
-        <v>-0.169816459225117</v>
+        <v>-0.1698164592251169</v>
       </c>
       <c r="E158">
         <v>0.4661299485698681</v>
@@ -4260,16 +4260,16 @@
         <v>-6</v>
       </c>
       <c r="B159">
-        <v>0.08756396890515637</v>
+        <v>0.08756396890515655</v>
       </c>
       <c r="C159">
-        <v>0.09149982220277818</v>
+        <v>0.09149982220277816</v>
       </c>
       <c r="D159">
-        <v>-0.09198691589875331</v>
+        <v>-0.0919869158987531</v>
       </c>
       <c r="E159">
-        <v>0.2671148537090661</v>
+        <v>0.2671148537090662</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4287,16 +4287,16 @@
         <v>-5</v>
       </c>
       <c r="B160">
-        <v>-0.03116701487516606</v>
+        <v>-0.03116701487516622</v>
       </c>
       <c r="C160">
-        <v>0.03511018310437744</v>
+        <v>0.03511018310437743</v>
       </c>
       <c r="D160">
-        <v>-0.100064027899382</v>
+        <v>-0.1000640278993821</v>
       </c>
       <c r="E160">
-        <v>0.03772999814904987</v>
+        <v>0.03772999814904968</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4314,16 +4314,16 @@
         <v>-4</v>
       </c>
       <c r="B161">
-        <v>0.06205848418574192</v>
+        <v>0.06205848418574194</v>
       </c>
       <c r="C161">
-        <v>0.02776208563855884</v>
+        <v>0.02776208563855886</v>
       </c>
       <c r="D161">
-        <v>0.00758070575511012</v>
+        <v>0.007580705755110106</v>
       </c>
       <c r="E161">
-        <v>0.1165362626163737</v>
+        <v>0.1165362626163738</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4341,16 +4341,16 @@
         <v>-3</v>
       </c>
       <c r="B162">
-        <v>-0.003952321841696087</v>
+        <v>-0.003952321841696223</v>
       </c>
       <c r="C162">
         <v>0.03576246307337046</v>
       </c>
       <c r="D162">
-        <v>-0.07412930943584083</v>
+        <v>-0.07412930943584095</v>
       </c>
       <c r="E162">
-        <v>0.06622466575244866</v>
+        <v>0.06622466575244851</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4368,16 +4368,16 @@
         <v>-2</v>
       </c>
       <c r="B163">
-        <v>-0.05947880564036412</v>
+        <v>-0.05947880564036424</v>
       </c>
       <c r="C163">
-        <v>0.05086921802929281</v>
+        <v>0.05086921802929278</v>
       </c>
       <c r="D163">
-        <v>-0.1592999078737758</v>
+        <v>-0.1592999078737759</v>
       </c>
       <c r="E163">
-        <v>0.04034229659304761</v>
+        <v>0.04034229659304744</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4422,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="B165">
-        <v>0.03071551200583597</v>
+        <v>0.0307155120058358</v>
       </c>
       <c r="C165">
-        <v>0.0625298250233014</v>
+        <v>0.06252982502330136</v>
       </c>
       <c r="D165">
-        <v>-0.09198729920494393</v>
+        <v>-0.09198729920494401</v>
       </c>
       <c r="E165">
-        <v>0.1534183232166159</v>
+        <v>0.1534183232166156</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4452,10 +4452,10 @@
         <v>0.119424580593911</v>
       </c>
       <c r="C166">
-        <v>0.0904763416458727</v>
+        <v>0.09047634164587272</v>
       </c>
       <c r="D166">
-        <v>-0.05811791954707853</v>
+        <v>-0.05811791954707861</v>
       </c>
       <c r="E166">
         <v>0.2969670807349006</v>
@@ -4476,16 +4476,16 @@
         <v>2</v>
       </c>
       <c r="B167">
-        <v>0.1604981670702028</v>
+        <v>0.1604981670702026</v>
       </c>
       <c r="C167">
         <v>0.1305005793522711</v>
       </c>
       <c r="D167">
-        <v>-0.09558423752939496</v>
+        <v>-0.0955842375293951</v>
       </c>
       <c r="E167">
-        <v>0.4165805716698006</v>
+        <v>0.4165805716698003</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4509,10 +4509,10 @@
         <v>0.128186479531974</v>
       </c>
       <c r="D168">
-        <v>-0.1686966247434297</v>
+        <v>-0.1686966247434296</v>
       </c>
       <c r="E168">
-        <v>0.3343862286605273</v>
+        <v>0.3343862286605271</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4530,16 +4530,16 @@
         <v>4</v>
       </c>
       <c r="B169">
-        <v>0.4280690114910935</v>
+        <v>0.4280690114910936</v>
       </c>
       <c r="C169">
         <v>0.1949358678899981</v>
       </c>
       <c r="D169">
-        <v>0.04554468830607561</v>
+        <v>0.04554468830607566</v>
       </c>
       <c r="E169">
-        <v>0.8105933346761114</v>
+        <v>0.8105933346761116</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4773,16 +4773,16 @@
         <v>1</v>
       </c>
       <c r="B178">
-        <v>-0.002334252789330377</v>
+        <v>-0.002334252789330378</v>
       </c>
       <c r="C178">
-        <v>0.003256189828275775</v>
+        <v>0.003256189828275774</v>
       </c>
       <c r="D178">
         <v>-0.008723842089857587</v>
       </c>
       <c r="E178">
-        <v>0.004055336511196833</v>
+        <v>0.004055336511196831</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>0.00368488291387812</v>
       </c>
       <c r="D181">
-        <v>0.001652582655770148</v>
+        <v>0.001652582655770149</v>
       </c>
       <c r="E181">
         <v>0.01611420171480315</v>
@@ -4887,10 +4887,10 @@
         <v>6.63194676333257</v>
       </c>
       <c r="D182">
-        <v>-8.86593733285557</v>
+        <v>-8.865937332855562</v>
       </c>
       <c r="E182">
-        <v>21.74884388177252</v>
+        <v>21.74884388177251</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4911,13 +4911,13 @@
         <v>3.405891758758</v>
       </c>
       <c r="C183">
-        <v>6.984567295507893</v>
+        <v>6.984567295507891</v>
       </c>
       <c r="D183">
-        <v>-12.71539262888764</v>
+        <v>-12.71539262888763</v>
       </c>
       <c r="E183">
-        <v>19.52717614640364</v>
+        <v>19.52717614640363</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4935,16 +4935,16 @@
         <v>-5</v>
       </c>
       <c r="B184">
-        <v>-1.539106066790274</v>
+        <v>-1.539106066790273</v>
       </c>
       <c r="C184">
-        <v>2.236844483892874</v>
+        <v>2.236844483892872</v>
       </c>
       <c r="D184">
-        <v>-6.702032348417751</v>
+        <v>-6.702032348417744</v>
       </c>
       <c r="E184">
-        <v>3.623820214837204</v>
+        <v>3.623820214837198</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4965,13 +4965,13 @@
         <v>-3.297856677675805</v>
       </c>
       <c r="C185">
-        <v>2.407974841841339</v>
+        <v>2.407974841841338</v>
       </c>
       <c r="D185">
-        <v>-8.855773951747601</v>
+        <v>-8.855773951747597</v>
       </c>
       <c r="E185">
-        <v>2.260060596395992</v>
+        <v>2.260060596395987</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4992,13 +4992,13 @@
         <v>0.8496921562534607</v>
       </c>
       <c r="C186">
-        <v>2.843660207226249</v>
+        <v>2.843660207226246</v>
       </c>
       <c r="D186">
-        <v>-5.713843273065087</v>
+        <v>-5.713843273065078</v>
       </c>
       <c r="E186">
-        <v>7.413227585572009</v>
+        <v>7.413227585572</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5016,13 +5016,13 @@
         <v>-2</v>
       </c>
       <c r="B187">
-        <v>2.720637347082336</v>
+        <v>2.72063734708234</v>
       </c>
       <c r="C187">
         <v>3.221023829118383</v>
       </c>
       <c r="D187">
-        <v>-4.713902112791938</v>
+        <v>-4.71390211279193</v>
       </c>
       <c r="E187">
         <v>10.15517680695661</v>
@@ -5061,16 +5061,16 @@
         <v>0</v>
       </c>
       <c r="B189">
-        <v>28.69826758234791</v>
+        <v>28.6982675823479</v>
       </c>
       <c r="C189">
-        <v>7.844940824377992</v>
+        <v>7.84494082437799</v>
       </c>
       <c r="D189">
-        <v>10.59112984807652</v>
+        <v>10.59112984807653</v>
       </c>
       <c r="E189">
-        <v>46.80540531661929</v>
+        <v>46.80540531661928</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5091,13 +5091,13 @@
         <v>44.37478512781738</v>
       </c>
       <c r="C190">
-        <v>7.015449082675549</v>
+        <v>7.015449082675545</v>
       </c>
       <c r="D190">
-        <v>28.18222158252818</v>
+        <v>28.1822215825282</v>
       </c>
       <c r="E190">
-        <v>60.56734867310657</v>
+        <v>60.56734867310655</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5118,13 +5118,13 @@
         <v>47.68244174655037</v>
       </c>
       <c r="C191">
-        <v>8.255196313886435</v>
+        <v>8.255196313886429</v>
       </c>
       <c r="D191">
-        <v>28.62838129851086</v>
+        <v>28.62838129851088</v>
       </c>
       <c r="E191">
-        <v>66.73650219458987</v>
+        <v>66.73650219458986</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5145,13 +5145,13 @@
         <v>44.38024698423575</v>
       </c>
       <c r="C192">
-        <v>13.84311440235811</v>
+        <v>13.84311440235813</v>
       </c>
       <c r="D192">
-        <v>12.42854909814641</v>
+        <v>12.42854909814639</v>
       </c>
       <c r="E192">
-        <v>76.33194487032509</v>
+        <v>76.33194487032512</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5169,16 +5169,16 @@
         <v>4</v>
       </c>
       <c r="B193">
-        <v>56.99531496470591</v>
+        <v>56.99531496470588</v>
       </c>
       <c r="C193">
-        <v>11.12146040373635</v>
+        <v>11.12146040373636</v>
       </c>
       <c r="D193">
-        <v>31.32554640368348</v>
+        <v>31.32554640368345</v>
       </c>
       <c r="E193">
-        <v>82.66508352572835</v>
+        <v>82.66508352572832</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5196,16 +5196,16 @@
         <v>-7</v>
       </c>
       <c r="B194">
-        <v>25.46730699779042</v>
+        <v>25.46730699779041</v>
       </c>
       <c r="C194">
         <v>16.05644673001066</v>
       </c>
       <c r="D194">
-        <v>-11.2623389156718</v>
+        <v>-11.26233891567178</v>
       </c>
       <c r="E194">
-        <v>62.19695291125263</v>
+        <v>62.19695291125259</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5223,16 +5223,16 @@
         <v>-6</v>
       </c>
       <c r="B195">
-        <v>2.594806746180489</v>
+        <v>2.594806746180484</v>
       </c>
       <c r="C195">
         <v>4.056978845155655</v>
       </c>
       <c r="D195">
-        <v>-6.685664765767481</v>
+        <v>-6.685664765767478</v>
       </c>
       <c r="E195">
-        <v>11.87527825812846</v>
+        <v>11.87527825812845</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5250,16 +5250,16 @@
         <v>-5</v>
       </c>
       <c r="B196">
-        <v>17.28650663351159</v>
+        <v>17.28650663351158</v>
       </c>
       <c r="C196">
-        <v>16.23012168024051</v>
+        <v>16.2301216802405</v>
       </c>
       <c r="D196">
-        <v>-19.84042639666105</v>
+        <v>-19.84042639666102</v>
       </c>
       <c r="E196">
-        <v>54.41343966368422</v>
+        <v>54.41343966368419</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5277,16 +5277,16 @@
         <v>-4</v>
       </c>
       <c r="B197">
-        <v>6.797228862491099</v>
+        <v>6.797228862491098</v>
       </c>
       <c r="C197">
         <v>17.06371943164405</v>
       </c>
       <c r="D197">
-        <v>-32.23658622933243</v>
+        <v>-32.23658622933239</v>
       </c>
       <c r="E197">
-        <v>45.83104395431462</v>
+        <v>45.83104395431458</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5307,13 +5307,13 @@
         <v>19.69855678902937</v>
       </c>
       <c r="C198">
-        <v>15.13743028771395</v>
+        <v>15.13743028771396</v>
       </c>
       <c r="D198">
-        <v>-14.92880901963749</v>
+        <v>-14.92880901963747</v>
       </c>
       <c r="E198">
-        <v>54.32592259769623</v>
+        <v>54.32592259769621</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5337,10 +5337,10 @@
         <v>19.77582917486384</v>
       </c>
       <c r="D199">
-        <v>-15.23987360882245</v>
+        <v>-15.23987360882244</v>
       </c>
       <c r="E199">
-        <v>75.2358356750064</v>
+        <v>75.23583567500637</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5376,13 +5376,13 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>57.50080253942666</v>
+        <v>57.50080253942665</v>
       </c>
       <c r="C201">
         <v>19.92818289149652</v>
       </c>
       <c r="D201">
-        <v>11.91443379849559</v>
+        <v>11.91443379849563</v>
       </c>
       <c r="E201">
         <v>103.0871712803577</v>
@@ -5406,10 +5406,10 @@
         <v>123.692209051674</v>
       </c>
       <c r="C202">
-        <v>22.07767785202211</v>
+        <v>22.07767785202212</v>
       </c>
       <c r="D202">
-        <v>73.18880043757389</v>
+        <v>73.18880043757392</v>
       </c>
       <c r="E202">
         <v>174.195617665774</v>
@@ -5436,7 +5436,7 @@
         <v>33.60210858206644</v>
       </c>
       <c r="D203">
-        <v>45.10577476360557</v>
+        <v>45.10577476360561</v>
       </c>
       <c r="E203">
         <v>198.8376148049284</v>
@@ -5460,13 +5460,13 @@
         <v>115.9277703421369</v>
       </c>
       <c r="C204">
-        <v>20.03474203416313</v>
+        <v>20.03474203416309</v>
       </c>
       <c r="D204">
-        <v>70.09764408468934</v>
+        <v>70.09764408468945</v>
       </c>
       <c r="E204">
-        <v>161.7578965995844</v>
+        <v>161.7578965995843</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5487,13 +5487,13 @@
         <v>142.8285262424114</v>
       </c>
       <c r="C205">
-        <v>91.66037891403558</v>
+        <v>91.66037891403559</v>
       </c>
       <c r="D205">
-        <v>-66.84758195366831</v>
+        <v>-66.84758195366817</v>
       </c>
       <c r="E205">
-        <v>352.5046344384911</v>
+        <v>352.5046344384909</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5511,16 +5511,16 @@
         <v>-7</v>
       </c>
       <c r="B206">
-        <v>-36.60559238424942</v>
+        <v>-36.60559238424956</v>
       </c>
       <c r="C206">
-        <v>77.87357999846124</v>
+        <v>77.87357999846115</v>
       </c>
       <c r="D206">
         <v>-220.6580424391701</v>
       </c>
       <c r="E206">
-        <v>147.4468576706712</v>
+        <v>147.446857670671</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5541,13 +5541,13 @@
         <v>-13.83662592760274</v>
       </c>
       <c r="C207">
-        <v>60.31063041154472</v>
+        <v>60.31063041154468</v>
       </c>
       <c r="D207">
         <v>-156.3794407284755</v>
       </c>
       <c r="E207">
-        <v>128.7061888732701</v>
+        <v>128.70618887327</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>-273.5756342938384</v>
       </c>
       <c r="E208">
-        <v>58.93582552793221</v>
+        <v>58.93582552793227</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5595,13 +5595,13 @@
         <v>-108.6961442347922</v>
       </c>
       <c r="C209">
-        <v>61.61380869678158</v>
+        <v>61.61380869678157</v>
       </c>
       <c r="D209">
         <v>-254.3189915224334</v>
       </c>
       <c r="E209">
-        <v>36.92670305284895</v>
+        <v>36.92670305284896</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5619,16 +5619,16 @@
         <v>-3</v>
       </c>
       <c r="B210">
-        <v>6.787091448061942</v>
+        <v>6.787091448061832</v>
       </c>
       <c r="C210">
-        <v>56.13725558880514</v>
+        <v>56.13725558880525</v>
       </c>
       <c r="D210">
-        <v>-125.8920460807769</v>
+        <v>-125.8920460807773</v>
       </c>
       <c r="E210">
-        <v>139.4662289769008</v>
+        <v>139.466228976901</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5646,13 +5646,13 @@
         <v>-2</v>
       </c>
       <c r="B211">
-        <v>73.85636261827527</v>
+        <v>73.8563626182753</v>
       </c>
       <c r="C211">
-        <v>49.32902904144412</v>
+        <v>49.32902904144409</v>
       </c>
       <c r="D211">
-        <v>-42.73168501081183</v>
+        <v>-42.7316850108118</v>
       </c>
       <c r="E211">
         <v>190.4444102473624</v>
@@ -5691,16 +5691,16 @@
         <v>0</v>
       </c>
       <c r="B213">
-        <v>79.31454387910685</v>
+        <v>79.31454387910686</v>
       </c>
       <c r="C213">
-        <v>56.49706775554288</v>
+        <v>56.49706775554293</v>
       </c>
       <c r="D213">
-        <v>-54.21500159102555</v>
+        <v>-54.21500159102571</v>
       </c>
       <c r="E213">
-        <v>212.8440893492393</v>
+        <v>212.8440893492394</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5721,13 +5721,13 @@
         <v>257.1426286922896</v>
       </c>
       <c r="C214">
-        <v>80.71420901377834</v>
+        <v>80.71420901377839</v>
       </c>
       <c r="D214">
-        <v>66.37641602395701</v>
+        <v>66.37641602395684</v>
       </c>
       <c r="E214">
-        <v>447.9088413606221</v>
+        <v>447.9088413606223</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5748,13 +5748,13 @@
         <v>289.493734933504</v>
       </c>
       <c r="C215">
-        <v>95.18333068388316</v>
+        <v>95.18333068388311</v>
       </c>
       <c r="D215">
-        <v>64.53007951786026</v>
+        <v>64.53007951786023</v>
       </c>
       <c r="E215">
-        <v>514.4573903491478</v>
+        <v>514.4573903491477</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         <v>126.5853779827864</v>
       </c>
       <c r="D216">
-        <v>122.5604148360928</v>
+        <v>122.5604148360927</v>
       </c>
       <c r="E216">
-        <v>720.9237868377502</v>
+        <v>720.9237868377504</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>397.6605735324083</v>
       </c>
       <c r="D217">
-        <v>-329.6849034218859</v>
+        <v>-329.6849034218862</v>
       </c>
       <c r="E217">
         <v>1550.03869090448</v>
@@ -5826,13 +5826,13 @@
         <v>-7</v>
       </c>
       <c r="B218">
-        <v>408.1333401063142</v>
+        <v>408.1333401063144</v>
       </c>
       <c r="C218">
         <v>161.8195993784953</v>
       </c>
       <c r="D218">
-        <v>7.524867667131275</v>
+        <v>7.524867667131844</v>
       </c>
       <c r="E218">
         <v>808.7418125454971</v>
@@ -5853,16 +5853,16 @@
         <v>-6</v>
       </c>
       <c r="B219">
-        <v>52.42531426571329</v>
+        <v>52.42531426571323</v>
       </c>
       <c r="C219">
-        <v>78.70445247786122</v>
+        <v>78.7044524778611</v>
       </c>
       <c r="D219">
-        <v>-142.4192571113947</v>
+        <v>-142.4192571113943</v>
       </c>
       <c r="E219">
-        <v>247.2698856428213</v>
+        <v>247.2698856428208</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5880,16 +5880,16 @@
         <v>-5</v>
       </c>
       <c r="B220">
-        <v>181.5831782177317</v>
+        <v>181.5831782177316</v>
       </c>
       <c r="C220">
-        <v>215.3304794707506</v>
+        <v>215.3304794707504</v>
       </c>
       <c r="D220">
-        <v>-351.4994321810555</v>
+        <v>-351.4994321810547</v>
       </c>
       <c r="E220">
-        <v>714.6657886165187</v>
+        <v>714.6657886165179</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5907,16 +5907,16 @@
         <v>-4</v>
       </c>
       <c r="B221">
-        <v>-97.10517860949055</v>
+        <v>-97.10517860949044</v>
       </c>
       <c r="C221">
-        <v>266.5577005116841</v>
+        <v>266.5577005116846</v>
       </c>
       <c r="D221">
-        <v>-757.0083895247313</v>
+        <v>-757.0083895247321</v>
       </c>
       <c r="E221">
-        <v>562.7980323057503</v>
+        <v>562.7980323057513</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5934,16 +5934,16 @@
         <v>-3</v>
       </c>
       <c r="B222">
-        <v>187.6689808048834</v>
+        <v>187.6689808048832</v>
       </c>
       <c r="C222">
         <v>266.7978529823463</v>
       </c>
       <c r="D222">
-        <v>-472.8287632496928</v>
+        <v>-472.8287632496927</v>
       </c>
       <c r="E222">
-        <v>848.1667248594596</v>
+        <v>848.166724859459</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5961,13 +5961,13 @@
         <v>-2</v>
       </c>
       <c r="B223">
-        <v>301.5097777486439</v>
+        <v>301.509777748644</v>
       </c>
       <c r="C223">
-        <v>307.0848968375946</v>
+        <v>307.084896837595</v>
       </c>
       <c r="D223">
-        <v>-458.7245319625532</v>
+        <v>-458.7245319625537</v>
       </c>
       <c r="E223">
         <v>1061.744087459841</v>
@@ -6006,16 +6006,16 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>-112.7650829482325</v>
+        <v>-112.7650829482326</v>
       </c>
       <c r="C225">
-        <v>160.3038737777858</v>
+        <v>160.303873777786</v>
       </c>
       <c r="D225">
-        <v>-509.6211513531121</v>
+        <v>-509.6211513531125</v>
       </c>
       <c r="E225">
-        <v>284.0909854566472</v>
+        <v>284.0909854566473</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6033,13 +6033,13 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>533.2421531816744</v>
+        <v>533.2421531816746</v>
       </c>
       <c r="C226">
-        <v>441.4674971658761</v>
+        <v>441.4674971658763</v>
       </c>
       <c r="D226">
-        <v>-559.6762593618298</v>
+        <v>-559.6762593618297</v>
       </c>
       <c r="E226">
         <v>1626.160565725179</v>
@@ -6060,13 +6060,13 @@
         <v>2</v>
       </c>
       <c r="B227">
-        <v>373.3713553853734</v>
+        <v>373.3713553853732</v>
       </c>
       <c r="C227">
-        <v>551.9330702167158</v>
+        <v>551.9330702167159</v>
       </c>
       <c r="D227">
-        <v>-993.0210037442132</v>
+        <v>-993.0210037442131</v>
       </c>
       <c r="E227">
         <v>1739.76371451496</v>
@@ -6087,16 +6087,16 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>337.0489689686125</v>
+        <v>337.0489689686115</v>
       </c>
       <c r="C228">
-        <v>248.0729084104908</v>
+        <v>248.072908410491</v>
       </c>
       <c r="D228">
-        <v>-277.0923913707022</v>
+        <v>-277.0923913707034</v>
       </c>
       <c r="E228">
-        <v>951.1903293079272</v>
+        <v>951.1903293079265</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6117,13 +6117,13 @@
         <v>260.7151871339123</v>
       </c>
       <c r="C229">
-        <v>749.3661093040824</v>
+        <v>749.366109304082</v>
       </c>
       <c r="D229">
-        <v>-1594.452008304695</v>
+        <v>-1594.452008304694</v>
       </c>
       <c r="E229">
-        <v>2115.88238257252</v>
+        <v>2115.882382572518</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -6144,13 +6144,13 @@
         <v>0.6111972717830829</v>
       </c>
       <c r="C230">
-        <v>0.1638484020864199</v>
+        <v>0.1638484020864198</v>
       </c>
       <c r="D230">
-        <v>0.2349604999605023</v>
+        <v>0.2349604999605019</v>
       </c>
       <c r="E230">
-        <v>0.9874340436056634</v>
+        <v>0.9874340436056639</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6168,16 +6168,16 @@
         <v>-6</v>
       </c>
       <c r="B231">
-        <v>0.5014577577313074</v>
+        <v>0.5014577577313073</v>
       </c>
       <c r="C231">
-        <v>0.1511841083669152</v>
+        <v>0.1511841083669154</v>
       </c>
       <c r="D231">
-        <v>0.1543013609735157</v>
+        <v>0.1543013609735145</v>
       </c>
       <c r="E231">
-        <v>0.848614154489099</v>
+        <v>0.8486141544891002</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -6195,16 +6195,16 @@
         <v>-5</v>
       </c>
       <c r="B232">
-        <v>0.1138392154718632</v>
+        <v>0.1138392154718631</v>
       </c>
       <c r="C232">
-        <v>0.1274185860597871</v>
+        <v>0.1274185860597869</v>
       </c>
       <c r="D232">
-        <v>-0.178745618306661</v>
+        <v>-0.1787456183066612</v>
       </c>
       <c r="E232">
-        <v>0.4064240492503873</v>
+        <v>0.4064240492503874</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6222,16 +6222,16 @@
         <v>-4</v>
       </c>
       <c r="B233">
-        <v>0.2512968569768682</v>
+        <v>0.2512968569768679</v>
       </c>
       <c r="C233">
-        <v>0.09941455822036009</v>
+        <v>0.09941455822035991</v>
       </c>
       <c r="D233">
-        <v>0.02301625136395358</v>
+        <v>0.02301625136395338</v>
       </c>
       <c r="E233">
-        <v>0.4795774625897827</v>
+        <v>0.4795774625897825</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6249,16 +6249,16 @@
         <v>-3</v>
       </c>
       <c r="B234">
-        <v>0.1171406604849877</v>
+        <v>0.1171406604849876</v>
       </c>
       <c r="C234">
-        <v>0.09609953313072811</v>
+        <v>0.09609953313072801</v>
       </c>
       <c r="D234">
-        <v>-0.1035278212234401</v>
+        <v>-0.1035278212234403</v>
       </c>
       <c r="E234">
-        <v>0.3378091421934155</v>
+        <v>0.3378091421934156</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6276,16 +6276,16 @@
         <v>-2</v>
       </c>
       <c r="B235">
-        <v>-0.0231078493754012</v>
+        <v>-0.02310784937540128</v>
       </c>
       <c r="C235">
-        <v>0.1089843458727776</v>
+        <v>0.1089843458727774</v>
       </c>
       <c r="D235">
         <v>-0.2733630727906555</v>
       </c>
       <c r="E235">
-        <v>0.2271473740398531</v>
+        <v>0.227147374039853</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         <v>0.1335503299624246</v>
       </c>
       <c r="C237">
-        <v>0.08463892056610381</v>
+        <v>0.08463892056610384</v>
       </c>
       <c r="D237">
-        <v>-0.06080172864076422</v>
+        <v>-0.06080172864076464</v>
       </c>
       <c r="E237">
-        <v>0.3279023885656133</v>
+        <v>0.3279023885656137</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6348,16 +6348,16 @@
         <v>1</v>
       </c>
       <c r="B238">
-        <v>0.09471879632518347</v>
+        <v>0.09471879632518354</v>
       </c>
       <c r="C238">
-        <v>0.1285708325388272</v>
+        <v>0.1285708325388273</v>
       </c>
       <c r="D238">
-        <v>-0.2005118825766231</v>
+        <v>-0.2005118825766238</v>
       </c>
       <c r="E238">
-        <v>0.3899494752269901</v>
+        <v>0.3899494752269909</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6375,16 +6375,16 @@
         <v>2</v>
       </c>
       <c r="B239">
-        <v>0.08958110569956398</v>
+        <v>0.08958110569956385</v>
       </c>
       <c r="C239">
-        <v>0.269964206358998</v>
+        <v>0.2699642063589977</v>
       </c>
       <c r="D239">
-        <v>-0.5303240030153946</v>
+        <v>-0.5303240030153953</v>
       </c>
       <c r="E239">
-        <v>0.7094862144145226</v>
+        <v>0.7094862144145229</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6402,16 +6402,16 @@
         <v>3</v>
       </c>
       <c r="B240">
-        <v>0.03992315269679607</v>
+        <v>0.03992315269679612</v>
       </c>
       <c r="C240">
-        <v>0.2769465044148379</v>
+        <v>0.2769465044148378</v>
       </c>
       <c r="D240">
-        <v>-0.596015052752586</v>
+        <v>-0.5960150527525867</v>
       </c>
       <c r="E240">
-        <v>0.6758613581461781</v>
+        <v>0.675861358146179</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         <v>0.1962857266147467</v>
       </c>
       <c r="C241">
-        <v>0.4693523239310176</v>
+        <v>0.4693523239310174</v>
       </c>
       <c r="D241">
-        <v>-0.881464199259374</v>
+        <v>-0.8814641992593756</v>
       </c>
       <c r="E241">
-        <v>1.274035652488867</v>
+        <v>1.274035652488869</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6483,16 +6483,16 @@
         <v>-6</v>
       </c>
       <c r="B243">
-        <v>0.008454814559931929</v>
+        <v>0.008454814559931941</v>
       </c>
       <c r="C243">
-        <v>0.006490142537332163</v>
+        <v>0.006490142537332176</v>
       </c>
       <c r="D243">
-        <v>-0.006722449195995732</v>
+        <v>-0.006722449195995751</v>
       </c>
       <c r="E243">
-        <v>0.02363207831585959</v>
+        <v>0.02363207831585963</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         <v>-4</v>
       </c>
       <c r="B245">
-        <v>0.004481760023841977</v>
+        <v>0.004481760023841981</v>
       </c>
       <c r="C245">
         <v>0.003677923405626863</v>
       </c>
       <c r="D245">
-        <v>-0.004119100940337141</v>
+        <v>-0.004119100940337138</v>
       </c>
       <c r="E245">
         <v>0.0130826209880211</v>
@@ -6567,10 +6567,10 @@
         <v>0.0024238380619856</v>
       </c>
       <c r="C246">
-        <v>0.004759082930796627</v>
+        <v>0.004759082930796626</v>
       </c>
       <c r="D246">
-        <v>-0.008705325351846668</v>
+        <v>-0.008705325351846666</v>
       </c>
       <c r="E246">
         <v>0.01355300147581787</v>
@@ -6591,13 +6591,13 @@
         <v>-2</v>
       </c>
       <c r="B247">
-        <v>0.00383078698211291</v>
+        <v>0.003830786982112911</v>
       </c>
       <c r="C247">
         <v>0.003398763184707271</v>
       </c>
       <c r="D247">
-        <v>-0.004117254991005758</v>
+        <v>-0.004117254991005757</v>
       </c>
       <c r="E247">
         <v>0.01177882895523158</v>
@@ -6663,16 +6663,16 @@
         <v>1</v>
       </c>
       <c r="B250">
-        <v>-0.00218687049483893</v>
+        <v>-0.002186870494838932</v>
       </c>
       <c r="C250">
-        <v>0.003689940067362294</v>
+        <v>0.003689940067362295</v>
       </c>
       <c r="D250">
-        <v>-0.01081583254363604</v>
+        <v>-0.01081583254363605</v>
       </c>
       <c r="E250">
-        <v>0.006442091553958179</v>
+        <v>0.00644209155395818</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6690,10 +6690,10 @@
         <v>2</v>
       </c>
       <c r="B251">
-        <v>0.002102801516400727</v>
+        <v>0.002102801516400728</v>
       </c>
       <c r="C251">
-        <v>0.01040968084657879</v>
+        <v>0.01040968084657878</v>
       </c>
       <c r="D251">
         <v>-0.02224034209173613</v>
@@ -6774,10 +6774,10 @@
         <v>12.398647387129</v>
       </c>
       <c r="C254">
-        <v>5.639907543274052</v>
+        <v>5.63990754327405</v>
       </c>
       <c r="D254">
-        <v>0.3774690170183739</v>
+        <v>0.3774690170183828</v>
       </c>
       <c r="E254">
         <v>24.41982575723962</v>
@@ -6798,16 +6798,16 @@
         <v>-6</v>
       </c>
       <c r="B255">
-        <v>10.85258320896564</v>
+        <v>10.85258320896563</v>
       </c>
       <c r="C255">
-        <v>6.497807810543555</v>
+        <v>6.497807810543551</v>
       </c>
       <c r="D255">
-        <v>-2.997166295952173</v>
+        <v>-2.997166295952178</v>
       </c>
       <c r="E255">
-        <v>24.70233271388346</v>
+        <v>24.70233271388344</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6825,16 +6825,16 @@
         <v>-5</v>
       </c>
       <c r="B256">
-        <v>0.9495175759642891</v>
+        <v>0.9495175759642906</v>
       </c>
       <c r="C256">
-        <v>4.134431465320371</v>
+        <v>4.134431465320368</v>
       </c>
       <c r="D256">
-        <v>-7.86281449194085</v>
+        <v>-7.862814491940843</v>
       </c>
       <c r="E256">
-        <v>9.761849643869429</v>
+        <v>9.761849643869425</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6852,16 +6852,16 @@
         <v>-4</v>
       </c>
       <c r="B257">
-        <v>-1.568163960229587</v>
+        <v>-1.568163960229593</v>
       </c>
       <c r="C257">
-        <v>3.702753839254919</v>
+        <v>3.702753839254916</v>
       </c>
       <c r="D257">
         <v>-9.460396948229196</v>
       </c>
       <c r="E257">
-        <v>6.324069027770022</v>
+        <v>6.32406902777001</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6879,16 +6879,16 @@
         <v>-3</v>
       </c>
       <c r="B258">
-        <v>2.599462996995783</v>
+        <v>2.599462996995777</v>
       </c>
       <c r="C258">
-        <v>2.212909918771336</v>
+        <v>2.212909918771334</v>
       </c>
       <c r="D258">
-        <v>-2.1172428437341</v>
+        <v>-2.117242843734103</v>
       </c>
       <c r="E258">
-        <v>7.316168837725666</v>
+        <v>7.316168837725657</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6906,16 +6906,16 @@
         <v>-2</v>
       </c>
       <c r="B259">
-        <v>0.0433940408052737</v>
+        <v>0.04339404080526437</v>
       </c>
       <c r="C259">
         <v>2.383485321503199</v>
       </c>
       <c r="D259">
-        <v>-5.036884664561115</v>
+        <v>-5.036884664561123</v>
       </c>
       <c r="E259">
-        <v>5.123672746171663</v>
+        <v>5.123672746171652</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6960,16 +6960,16 @@
         <v>0</v>
       </c>
       <c r="B261">
-        <v>28.08200810469716</v>
+        <v>28.08200810469714</v>
       </c>
       <c r="C261">
-        <v>6.613642236217689</v>
+        <v>6.613642236217688</v>
       </c>
       <c r="D261">
-        <v>13.98536336581603</v>
+        <v>13.98536336581602</v>
       </c>
       <c r="E261">
-        <v>42.17865284357828</v>
+        <v>42.17865284357826</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6990,13 +6990,13 @@
         <v>42.7121694521781</v>
       </c>
       <c r="C262">
-        <v>5.273170355489142</v>
+        <v>5.273170355489145</v>
       </c>
       <c r="D262">
-        <v>31.47267289431149</v>
+        <v>31.47267289431148</v>
       </c>
       <c r="E262">
-        <v>53.9516660100447</v>
+        <v>53.95166601004471</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -7020,10 +7020,10 @@
         <v>7.170308783083196</v>
       </c>
       <c r="D263">
-        <v>29.80719144439694</v>
+        <v>29.80719144439693</v>
       </c>
       <c r="E263">
-        <v>60.37349423884883</v>
+        <v>60.37349423884882</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -7041,16 +7041,16 @@
         <v>3</v>
       </c>
       <c r="B264">
-        <v>40.55326163952282</v>
+        <v>40.55326163952281</v>
       </c>
       <c r="C264">
-        <v>5.61295888482036</v>
+        <v>5.612958884820357</v>
       </c>
       <c r="D264">
         <v>28.58952297522676</v>
       </c>
       <c r="E264">
-        <v>52.51700030381888</v>
+        <v>52.51700030381886</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>4</v>
       </c>
       <c r="B265">
-        <v>53.83964400735035</v>
+        <v>53.83964400735034</v>
       </c>
       <c r="C265">
         <v>5.890422929128508</v>
@@ -7077,7 +7077,7 @@
         <v>41.28450473190451</v>
       </c>
       <c r="E265">
-        <v>66.3947832827962</v>
+        <v>66.39478328279618</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -7095,16 +7095,16 @@
         <v>-7</v>
       </c>
       <c r="B266">
-        <v>21.03520825919263</v>
+        <v>21.03520825919259</v>
       </c>
       <c r="C266">
         <v>17.69173607204607</v>
       </c>
       <c r="D266">
-        <v>-16.67383455173345</v>
+        <v>-16.67383455173347</v>
       </c>
       <c r="E266">
-        <v>58.74425107011871</v>
+        <v>58.74425107011865</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7122,16 +7122,16 @@
         <v>-6</v>
       </c>
       <c r="B267">
-        <v>22.40212584122217</v>
+        <v>22.40212584122214</v>
       </c>
       <c r="C267">
         <v>11.67495957704748</v>
       </c>
       <c r="D267">
-        <v>-2.482461443704423</v>
+        <v>-2.482461443704459</v>
       </c>
       <c r="E267">
-        <v>47.28671312614876</v>
+        <v>47.28671312614873</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7149,16 +7149,16 @@
         <v>-5</v>
       </c>
       <c r="B268">
-        <v>6.692557772262691</v>
+        <v>6.69255777226267</v>
       </c>
       <c r="C268">
         <v>13.56210668722301</v>
       </c>
       <c r="D268">
-        <v>-22.21438836305199</v>
+        <v>-22.21438836305201</v>
       </c>
       <c r="E268">
-        <v>35.59950390757737</v>
+        <v>35.59950390757735</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -7176,16 +7176,16 @@
         <v>-4</v>
       </c>
       <c r="B269">
-        <v>-10.8947906498732</v>
+        <v>-10.89479064987324</v>
       </c>
       <c r="C269">
         <v>10.94335937548845</v>
       </c>
       <c r="D269">
-        <v>-34.22000901765536</v>
+        <v>-34.2200090176554</v>
       </c>
       <c r="E269">
-        <v>12.43042771790895</v>
+        <v>12.43042771790891</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7203,16 +7203,16 @@
         <v>-3</v>
       </c>
       <c r="B270">
-        <v>7.758805569425838</v>
+        <v>7.758805569425831</v>
       </c>
       <c r="C270">
         <v>12.59057266492048</v>
       </c>
       <c r="D270">
-        <v>-19.07736481555624</v>
+        <v>-19.07736481555625</v>
       </c>
       <c r="E270">
-        <v>34.59497595440792</v>
+        <v>34.59497595440791</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7230,16 +7230,16 @@
         <v>-2</v>
       </c>
       <c r="B271">
-        <v>11.31398149034873</v>
+        <v>11.31398149034872</v>
       </c>
       <c r="C271">
         <v>15.37657617096095</v>
       </c>
       <c r="D271">
-        <v>-21.46041480151127</v>
+        <v>-21.46041480151126</v>
       </c>
       <c r="E271">
-        <v>44.08837778220872</v>
+        <v>44.0883777822087</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -7284,16 +7284,16 @@
         <v>0</v>
       </c>
       <c r="B273">
-        <v>57.85402051535871</v>
+        <v>57.85402051535868</v>
       </c>
       <c r="C273">
         <v>16.42559114001213</v>
       </c>
       <c r="D273">
-        <v>22.84370174442918</v>
+        <v>22.84370174442915</v>
       </c>
       <c r="E273">
-        <v>92.86433928628824</v>
+        <v>92.86433928628821</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>18.84001993078555</v>
       </c>
       <c r="D274">
-        <v>66.72130022198439</v>
+        <v>66.72130022198441</v>
       </c>
       <c r="E274">
         <v>147.0344040616043</v>
@@ -7344,7 +7344,7 @@
         <v>22.69258584085905</v>
       </c>
       <c r="D275">
-        <v>67.73051181026588</v>
+        <v>67.7305118102659</v>
       </c>
       <c r="E275">
         <v>164.4667153664163</v>
@@ -7371,7 +7371,7 @@
         <v>22.35157819504363</v>
       </c>
       <c r="D276">
-        <v>71.72397914177127</v>
+        <v>71.72397914177128</v>
       </c>
       <c r="E276">
         <v>167.0065015145103</v>
@@ -7392,13 +7392,13 @@
         <v>4</v>
       </c>
       <c r="B277">
-        <v>148.7873379395417</v>
+        <v>148.7873379395416</v>
       </c>
       <c r="C277">
         <v>34.64416984493214</v>
       </c>
       <c r="D277">
-        <v>74.9450378672654</v>
+        <v>74.94503786726536</v>
       </c>
       <c r="E277">
         <v>222.6296380118179</v>
@@ -7419,16 +7419,16 @@
         <v>-7</v>
       </c>
       <c r="B278">
-        <v>52.44870790621945</v>
+        <v>52.44870790621951</v>
       </c>
       <c r="C278">
-        <v>59.07123883820156</v>
+        <v>59.07123883820157</v>
       </c>
       <c r="D278">
-        <v>-73.4586572711182</v>
+        <v>-73.45865727111816</v>
       </c>
       <c r="E278">
-        <v>178.3560730835571</v>
+        <v>178.3560730835572</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7446,16 +7446,16 @@
         <v>-6</v>
       </c>
       <c r="B279">
-        <v>99.19629500798284</v>
+        <v>99.19629500798288</v>
       </c>
       <c r="C279">
-        <v>58.63780661910903</v>
+        <v>58.63780661910904</v>
       </c>
       <c r="D279">
-        <v>-25.78723126293907</v>
+        <v>-25.78723126293906</v>
       </c>
       <c r="E279">
-        <v>224.1798212789047</v>
+        <v>224.1798212789048</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7500,16 +7500,16 @@
         <v>-4</v>
       </c>
       <c r="B281">
-        <v>-23.47219324841894</v>
+        <v>-23.47219324841891</v>
       </c>
       <c r="C281">
         <v>49.97682765985903</v>
       </c>
       <c r="D281">
-        <v>-129.9952798525447</v>
+        <v>-129.9952798525446</v>
       </c>
       <c r="E281">
-        <v>83.05089335570679</v>
+        <v>83.0508933557068</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7527,13 +7527,13 @@
         <v>-3</v>
       </c>
       <c r="B282">
-        <v>30.60352423177688</v>
+        <v>30.60352423177692</v>
       </c>
       <c r="C282">
         <v>39.91155596840059</v>
       </c>
       <c r="D282">
-        <v>-54.46594359965408</v>
+        <v>-54.46594359965405</v>
       </c>
       <c r="E282">
         <v>115.6729920632079</v>
@@ -7554,13 +7554,13 @@
         <v>-2</v>
       </c>
       <c r="B283">
-        <v>44.84737711504915</v>
+        <v>44.84737711504919</v>
       </c>
       <c r="C283">
         <v>36.35668554307382</v>
       </c>
       <c r="D283">
-        <v>-32.64506376379519</v>
+        <v>-32.64506376379514</v>
       </c>
       <c r="E283">
         <v>122.3398179938935</v>
@@ -7608,16 +7608,16 @@
         <v>0</v>
       </c>
       <c r="B285">
-        <v>94.92966915903563</v>
+        <v>94.92966915903567</v>
       </c>
       <c r="C285">
-        <v>30.07505911882863</v>
+        <v>30.07505911882864</v>
       </c>
       <c r="D285">
-        <v>30.82619806752497</v>
+        <v>30.826198067525</v>
       </c>
       <c r="E285">
-        <v>159.0331402505463</v>
+        <v>159.0331402505464</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7638,10 +7638,10 @@
         <v>205.8398844039311</v>
       </c>
       <c r="C286">
-        <v>54.9058189650758</v>
+        <v>54.90581896507579</v>
       </c>
       <c r="D286">
-        <v>88.81090152223301</v>
+        <v>88.81090152223307</v>
       </c>
       <c r="E286">
         <v>322.8688672856292</v>
@@ -7665,7 +7665,7 @@
         <v>261.8335086427773</v>
       </c>
       <c r="C287">
-        <v>66.90791233318465</v>
+        <v>66.90791233318464</v>
       </c>
       <c r="D287">
         <v>119.2226693058576</v>
@@ -7692,13 +7692,13 @@
         <v>213.8942420814394</v>
       </c>
       <c r="C288">
-        <v>92.04104528691221</v>
+        <v>92.04104528691218</v>
       </c>
       <c r="D288">
-        <v>17.71339793180366</v>
+        <v>17.7133979318038</v>
       </c>
       <c r="E288">
-        <v>410.075086231075</v>
+        <v>410.0750862310751</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7716,16 +7716,16 @@
         <v>4</v>
       </c>
       <c r="B289">
-        <v>291.5239242388111</v>
+        <v>291.5239242388112</v>
       </c>
       <c r="C289">
         <v>240.7266395921467</v>
       </c>
       <c r="D289">
-        <v>-221.5727623240017</v>
+        <v>-221.5727623240015</v>
       </c>
       <c r="E289">
-        <v>804.6206108016239</v>
+        <v>804.6206108016238</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7743,16 +7743,16 @@
         <v>-7</v>
       </c>
       <c r="B290">
-        <v>498.7120488555909</v>
+        <v>498.7120488555908</v>
       </c>
       <c r="C290">
-        <v>200.2072727304869</v>
+        <v>200.2072727304868</v>
       </c>
       <c r="D290">
-        <v>71.98034837643269</v>
+        <v>71.98034837643274</v>
       </c>
       <c r="E290">
-        <v>925.4437493347491</v>
+        <v>925.4437493347489</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7770,16 +7770,16 @@
         <v>-6</v>
       </c>
       <c r="B291">
-        <v>372.2782497203667</v>
+        <v>372.2782497203668</v>
       </c>
       <c r="C291">
         <v>247.3219245984608</v>
       </c>
       <c r="D291">
-        <v>-154.8759540719915</v>
+        <v>-154.8759540719914</v>
       </c>
       <c r="E291">
-        <v>899.4324535127249</v>
+        <v>899.432453512725</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7797,16 +7797,16 @@
         <v>-5</v>
       </c>
       <c r="B292">
-        <v>286.7720330314985</v>
+        <v>286.7720330314983</v>
       </c>
       <c r="C292">
-        <v>185.4859635760401</v>
+        <v>185.4859635760402</v>
       </c>
       <c r="D292">
-        <v>-108.5819397403692</v>
+        <v>-108.5819397403695</v>
       </c>
       <c r="E292">
-        <v>682.1260058033662</v>
+        <v>682.1260058033661</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7824,16 +7824,16 @@
         <v>-4</v>
       </c>
       <c r="B293">
-        <v>-98.2570956787773</v>
+        <v>-98.25709567877722</v>
       </c>
       <c r="C293">
-        <v>181.5350195256186</v>
+        <v>181.5350195256187</v>
       </c>
       <c r="D293">
         <v>-485.189830549842</v>
       </c>
       <c r="E293">
-        <v>288.6756391922874</v>
+        <v>288.6756391922876</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7854,13 +7854,13 @@
         <v>103.994841326566</v>
       </c>
       <c r="C294">
-        <v>199.6995231400696</v>
+        <v>199.6995231400697</v>
       </c>
       <c r="D294">
-        <v>-321.6546165188391</v>
+        <v>-321.6546165188393</v>
       </c>
       <c r="E294">
-        <v>529.6442991719712</v>
+        <v>529.6442991719714</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>-392.1475795598287</v>
       </c>
       <c r="E295">
-        <v>597.63727332605</v>
+        <v>597.6372733260501</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>103.0983947720331</v>
       </c>
       <c r="D297">
-        <v>-260.3964565189998</v>
+        <v>-260.3964565189999</v>
       </c>
       <c r="E297">
         <v>179.1015968505847</v>
@@ -7986,16 +7986,16 @@
         <v>2</v>
       </c>
       <c r="B299">
-        <v>311.5956401158766</v>
+        <v>311.5956401158767</v>
       </c>
       <c r="C299">
         <v>296.666259658382</v>
       </c>
       <c r="D299">
-        <v>-320.7335242159</v>
+        <v>-320.7335242158998</v>
       </c>
       <c r="E299">
-        <v>943.9248044476533</v>
+        <v>943.9248044476532</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -8013,16 +8013,16 @@
         <v>3</v>
       </c>
       <c r="B300">
-        <v>-9.166097690657715</v>
+        <v>-9.166097690657594</v>
       </c>
       <c r="C300">
-        <v>336.0443199844509</v>
+        <v>336.044319984451</v>
       </c>
       <c r="D300">
         <v>-725.4276108094592</v>
       </c>
       <c r="E300">
-        <v>707.0954154281438</v>
+        <v>707.0954154281441</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -8040,10 +8040,10 @@
         <v>4</v>
       </c>
       <c r="B301">
-        <v>86.61066691486882</v>
+        <v>86.61066691486883</v>
       </c>
       <c r="C301">
-        <v>513.2603624261384</v>
+        <v>513.2603624261385</v>
       </c>
       <c r="D301">
         <v>-1007.377899332169</v>
@@ -8067,13 +8067,13 @@
         <v>-7</v>
       </c>
       <c r="B302">
-        <v>0.3108303343641525</v>
+        <v>0.3108303343641523</v>
       </c>
       <c r="C302">
-        <v>0.3240729926001635</v>
+        <v>0.3240729926001636</v>
       </c>
       <c r="D302">
-        <v>-0.3799148984416623</v>
+        <v>-0.3799148984416628</v>
       </c>
       <c r="E302">
         <v>1.001575567169967</v>
@@ -8094,16 +8094,16 @@
         <v>-6</v>
       </c>
       <c r="B303">
-        <v>0.249135806790458</v>
+        <v>0.2491358067904579</v>
       </c>
       <c r="C303">
-        <v>0.2245772562566929</v>
+        <v>0.2245772562566928</v>
       </c>
       <c r="D303">
         <v>-0.2295392840009312</v>
       </c>
       <c r="E303">
-        <v>0.7278108975818471</v>
+        <v>0.7278108975818469</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8121,13 +8121,13 @@
         <v>-5</v>
       </c>
       <c r="B304">
-        <v>0.04214807126392245</v>
+        <v>0.04214807126392247</v>
       </c>
       <c r="C304">
         <v>0.1244759281215245</v>
       </c>
       <c r="D304">
-        <v>-0.2231660891638321</v>
+        <v>-0.223166089163832</v>
       </c>
       <c r="E304">
         <v>0.307462231691677</v>
@@ -8151,10 +8151,10 @@
         <v>0.1362333518006626</v>
       </c>
       <c r="C305">
-        <v>0.09925679342035786</v>
+        <v>0.0992567934203579</v>
       </c>
       <c r="D305">
-        <v>-0.07532749542887957</v>
+        <v>-0.07532749542887968</v>
       </c>
       <c r="E305">
         <v>0.3477941990302049</v>
@@ -8175,16 +8175,16 @@
         <v>-3</v>
       </c>
       <c r="B306">
-        <v>0.02005648411402883</v>
+        <v>0.02005648411402887</v>
       </c>
       <c r="C306">
         <v>0.0683791535017666</v>
       </c>
       <c r="D306">
-        <v>-0.1256902315430737</v>
+        <v>-0.1256902315430736</v>
       </c>
       <c r="E306">
-        <v>0.1658031997711313</v>
+        <v>0.1658031997711314</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -8202,16 +8202,16 @@
         <v>-2</v>
       </c>
       <c r="B307">
-        <v>-0.06964953245063951</v>
+        <v>-0.06964953245063948</v>
       </c>
       <c r="C307">
-        <v>0.08356806273803134</v>
+        <v>0.08356806273803132</v>
       </c>
       <c r="D307">
-        <v>-0.2477706417969272</v>
+        <v>-0.2477706417969271</v>
       </c>
       <c r="E307">
-        <v>0.1084715768956482</v>
+        <v>0.1084715768956481</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -8256,16 +8256,16 @@
         <v>0</v>
       </c>
       <c r="B309">
-        <v>-0.01297738244051376</v>
+        <v>-0.01297738244051378</v>
       </c>
       <c r="C309">
-        <v>0.03492669026508544</v>
+        <v>0.03492669026508547</v>
       </c>
       <c r="D309">
-        <v>-0.08742186053393715</v>
+        <v>-0.08742186053393723</v>
       </c>
       <c r="E309">
-        <v>0.06146709565290963</v>
+        <v>0.06146709565290966</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -8283,13 +8283,13 @@
         <v>1</v>
       </c>
       <c r="B310">
-        <v>0.05431828751737004</v>
+        <v>0.05431828751737014</v>
       </c>
       <c r="C310">
-        <v>0.0573176345959707</v>
+        <v>0.05731763459597066</v>
       </c>
       <c r="D310">
-        <v>-0.06785135869477293</v>
+        <v>-0.06785135869477277</v>
       </c>
       <c r="E310">
         <v>0.176487933729513</v>
@@ -8310,16 +8310,16 @@
         <v>2</v>
       </c>
       <c r="B311">
-        <v>0.08929970018011053</v>
+        <v>0.08929970018011057</v>
       </c>
       <c r="C311">
-        <v>0.08969076487000627</v>
+        <v>0.08969076487000631</v>
       </c>
       <c r="D311">
         <v>-0.101871639842973</v>
       </c>
       <c r="E311">
-        <v>0.280471040203194</v>
+        <v>0.2804710402031941</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -8337,16 +8337,16 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>0.00087747228729839</v>
+        <v>0.0008774722872984874</v>
       </c>
       <c r="C312">
-        <v>0.0961445057340005</v>
+        <v>0.09614450573400045</v>
       </c>
       <c r="D312">
-        <v>-0.2040496907675062</v>
+        <v>-0.204049690767506</v>
       </c>
       <c r="E312">
-        <v>0.205804635342103</v>
+        <v>0.2058046353421029</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>0.2988597971454908</v>
+        <v>0.2988597971454909</v>
       </c>
       <c r="C313">
         <v>0.2038435542303279</v>
@@ -8373,7 +8373,7 @@
         <v>-0.1356224538840309</v>
       </c>
       <c r="E313">
-        <v>0.7333420481750125</v>
+        <v>0.7333420481750126</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -8391,10 +8391,10 @@
         <v>-7</v>
       </c>
       <c r="B314">
-        <v>0.006426530464945707</v>
+        <v>0.006426530464945711</v>
       </c>
       <c r="C314">
-        <v>0.008665789275514537</v>
+        <v>0.008665789275514538</v>
       </c>
       <c r="D314">
         <v>-0.01204416214826652</v>
@@ -8418,13 +8418,13 @@
         <v>-6</v>
       </c>
       <c r="B315">
-        <v>0.0006311899712137356</v>
+        <v>0.0006311899712137391</v>
       </c>
       <c r="C315">
-        <v>0.006696587785317751</v>
+        <v>0.00669658778531775</v>
       </c>
       <c r="D315">
-        <v>-0.01364224902060293</v>
+        <v>-0.01364224902060292</v>
       </c>
       <c r="E315">
         <v>0.0149046289630304</v>
@@ -8445,16 +8445,16 @@
         <v>-5</v>
       </c>
       <c r="B316">
-        <v>0.001505209837351525</v>
+        <v>0.001505209837351527</v>
       </c>
       <c r="C316">
-        <v>0.005768739147939856</v>
+        <v>0.005768739147939858</v>
       </c>
       <c r="D316">
-        <v>-0.01079056659797776</v>
+        <v>-0.01079056659797777</v>
       </c>
       <c r="E316">
-        <v>0.01380098627268081</v>
+        <v>0.01380098627268082</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -8472,16 +8472,16 @@
         <v>-4</v>
       </c>
       <c r="B317">
-        <v>0.001250814898334356</v>
+        <v>0.001250814898334359</v>
       </c>
       <c r="C317">
         <v>0.004868650985575297</v>
       </c>
       <c r="D317">
-        <v>-0.009126469032359263</v>
+        <v>-0.009126469032359259</v>
       </c>
       <c r="E317">
-        <v>0.01162809882902797</v>
+        <v>0.01162809882902798</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -8499,16 +8499,16 @@
         <v>-3</v>
       </c>
       <c r="B318">
-        <v>-0.0003915358517460732</v>
+        <v>-0.0003915358517460724</v>
       </c>
       <c r="C318">
-        <v>0.003201102036330502</v>
+        <v>0.003201102036330503</v>
       </c>
       <c r="D318">
         <v>-0.007214523332373193</v>
       </c>
       <c r="E318">
-        <v>0.006431451628881047</v>
+        <v>0.006431451628881048</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8526,16 +8526,16 @@
         <v>-2</v>
       </c>
       <c r="B319">
-        <v>0.002357156046475029</v>
+        <v>0.002357156046475031</v>
       </c>
       <c r="C319">
-        <v>0.00294817103507965</v>
+        <v>0.002948171035079651</v>
       </c>
       <c r="D319">
-        <v>-0.003926721766477983</v>
+        <v>-0.003926721766477982</v>
       </c>
       <c r="E319">
-        <v>0.008641033859428042</v>
+        <v>0.008641033859428045</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8580,16 +8580,16 @@
         <v>0</v>
       </c>
       <c r="B321">
-        <v>0.001223708654128536</v>
+        <v>0.001223708654128538</v>
       </c>
       <c r="C321">
         <v>0.00240376217059224</v>
       </c>
       <c r="D321">
-        <v>-0.003899789132014072</v>
+        <v>-0.003899789132014071</v>
       </c>
       <c r="E321">
-        <v>0.006347206440271144</v>
+        <v>0.006347206440271147</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8607,16 +8607,16 @@
         <v>1</v>
       </c>
       <c r="B322">
-        <v>-0.002620151052896131</v>
+        <v>-0.002620151052896134</v>
       </c>
       <c r="C322">
         <v>0.003123894592104082</v>
       </c>
       <c r="D322">
-        <v>-0.009278574761613017</v>
+        <v>-0.009278574761613019</v>
       </c>
       <c r="E322">
-        <v>0.004038272655820753</v>
+        <v>0.004038272655820751</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8634,16 +8634,16 @@
         <v>2</v>
       </c>
       <c r="B323">
-        <v>0.001809708173476464</v>
+        <v>0.001809708173476466</v>
       </c>
       <c r="C323">
         <v>0.003908710700132116</v>
       </c>
       <c r="D323">
-        <v>-0.006521511472044765</v>
+        <v>-0.006521511472044763</v>
       </c>
       <c r="E323">
-        <v>0.01014092781899769</v>
+        <v>0.0101409278189977</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8661,16 +8661,16 @@
         <v>3</v>
       </c>
       <c r="B324">
-        <v>-0.001425537618413144</v>
+        <v>-0.001425537618413143</v>
       </c>
       <c r="C324">
-        <v>0.005075327853401884</v>
+        <v>0.005075327853401883</v>
       </c>
       <c r="D324">
         <v>-0.01224334286511346</v>
       </c>
       <c r="E324">
-        <v>0.009392267628287172</v>
+        <v>0.00939226762828717</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8688,16 +8688,16 @@
         <v>4</v>
       </c>
       <c r="B325">
-        <v>0.008031020595508937</v>
+        <v>0.008031020595508939</v>
       </c>
       <c r="C325">
         <v>0.005338897798593902</v>
       </c>
       <c r="D325">
-        <v>-0.003348570691094118</v>
+        <v>-0.003348570691094116</v>
       </c>
       <c r="E325">
-        <v>0.01941061188211199</v>
+        <v>0.019410611882112</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
